--- a/morphosource_batch_convert/MorphoSourceBatchImportWorksheet.xlsx
+++ b/morphosource_batch_convert/MorphoSourceBatchImportWorksheet.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmw110/rapidvm/html/themes/morphosource/static/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\cygwin\home\N.S\scripts\CT_tools\morphosource_batch_convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3573B9D8-B6B4-3649-AB56-C5CD8A10EA4F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="460" windowWidth="22280" windowHeight="15520" tabRatio="994" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3705" yWindow="465" windowWidth="22275" windowHeight="15525" tabRatio="393"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,7 +780,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1268,68 +1267,68 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="BT1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CB3" sqref="CB3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.1640625"/>
-    <col min="2" max="2" width="26.33203125"/>
-    <col min="3" max="3" width="34.6640625"/>
+    <col min="1" max="1" width="19.125"/>
+    <col min="2" max="2" width="26.375"/>
+    <col min="3" max="3" width="34.625"/>
     <col min="4" max="4" width="27"/>
     <col min="5" max="5" width="30.5"/>
-    <col min="6" max="7" width="29.33203125"/>
-    <col min="8" max="13" width="10.6640625"/>
+    <col min="6" max="7" width="29.375"/>
+    <col min="8" max="13" width="10.625"/>
     <col min="14" max="14" width="27"/>
-    <col min="15" max="15" width="27.1640625"/>
-    <col min="16" max="16" width="25.33203125"/>
-    <col min="17" max="17" width="19.33203125"/>
-    <col min="18" max="18" width="17.1640625"/>
+    <col min="15" max="15" width="27.125"/>
+    <col min="16" max="16" width="25.375"/>
+    <col min="17" max="17" width="19.375"/>
+    <col min="18" max="18" width="17.125"/>
     <col min="19" max="19" width="28.5"/>
-    <col min="20" max="20" width="25.33203125"/>
-    <col min="21" max="21" width="19.1640625"/>
-    <col min="22" max="22" width="29.33203125"/>
-    <col min="23" max="23" width="25.33203125"/>
-    <col min="24" max="24" width="24.33203125"/>
-    <col min="25" max="47" width="22.6640625"/>
+    <col min="20" max="20" width="25.375"/>
+    <col min="21" max="21" width="19.125"/>
+    <col min="22" max="22" width="29.375"/>
+    <col min="23" max="23" width="25.375"/>
+    <col min="24" max="24" width="24.375"/>
+    <col min="25" max="47" width="22.625"/>
     <col min="48" max="48" width="28"/>
     <col min="49" max="49" width="27"/>
-    <col min="50" max="50" width="24.83203125"/>
-    <col min="51" max="51" width="24.6640625"/>
-    <col min="52" max="52" width="26.33203125"/>
+    <col min="50" max="50" width="24.875"/>
+    <col min="51" max="51" width="24.625"/>
+    <col min="52" max="52" width="26.375"/>
     <col min="53" max="53" width="29"/>
     <col min="54" max="54" width="28"/>
-    <col min="55" max="55" width="33.6640625"/>
+    <col min="55" max="55" width="33.625"/>
     <col min="56" max="56" width="32.5"/>
-    <col min="57" max="57" width="30.83203125"/>
-    <col min="58" max="58" width="31.33203125"/>
+    <col min="57" max="57" width="30.875"/>
+    <col min="58" max="58" width="31.375"/>
     <col min="59" max="59" width="25.5"/>
-    <col min="60" max="60" width="28.1640625"/>
-    <col min="61" max="61" width="29.1640625"/>
-    <col min="62" max="62" width="25.83203125"/>
-    <col min="63" max="63" width="34.6640625"/>
-    <col min="64" max="64" width="26.83203125"/>
-    <col min="65" max="65" width="23.83203125"/>
-    <col min="66" max="66" width="22.6640625"/>
-    <col min="67" max="67" width="25.33203125"/>
+    <col min="60" max="60" width="28.125"/>
+    <col min="61" max="61" width="29.125"/>
+    <col min="62" max="62" width="25.875"/>
+    <col min="63" max="63" width="34.625"/>
+    <col min="64" max="64" width="26.875"/>
+    <col min="65" max="65" width="23.875"/>
+    <col min="66" max="66" width="22.625"/>
+    <col min="67" max="67" width="25.375"/>
     <col min="68" max="68" width="20.5"/>
     <col min="69" max="69" width="26"/>
     <col min="70" max="70" width="22"/>
     <col min="71" max="71" width="20"/>
-    <col min="72" max="72" width="20.33203125"/>
+    <col min="72" max="72" width="20.375"/>
     <col min="73" max="73" width="20.5"/>
-    <col min="74" max="74" width="27.33203125"/>
-    <col min="75" max="75" width="28.6640625"/>
-    <col min="76" max="80" width="10.6640625"/>
+    <col min="74" max="74" width="27.375"/>
+    <col min="75" max="75" width="28.625"/>
+    <col min="76" max="80" width="10.625"/>
     <col min="81" max="81" width="20"/>
-    <col min="82" max="1025" width="10.6640625"/>
+    <col min="82" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1024" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1479,7 +1478,7 @@
       <c r="AMI1"/>
       <c r="AMJ1"/>
     </row>
-    <row r="2" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -1856,7 +1855,7 @@
       <c r="AMI2"/>
       <c r="AMJ2"/>
     </row>
-    <row r="3" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1024" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>127</v>
       </c>
@@ -2233,7 +2232,7 @@
       <c r="AMI3"/>
       <c r="AMJ3"/>
     </row>
-    <row r="4" spans="1:1024" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.25">
       <c r="AV4" s="12"/>
       <c r="BC4" t="s">
         <v>198</v>
@@ -2241,7 +2240,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D4">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -2252,19 +2251,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1025" width="10.6640625"/>
+    <col min="1" max="1025" width="10.625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>199</v>
       </c>
@@ -2293,7 +2292,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>208</v>
       </c>
@@ -2322,7 +2321,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
         <v>217</v>
       </c>
@@ -2339,7 +2338,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>222</v>
       </c>
@@ -2353,7 +2352,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>226</v>
       </c>
@@ -2367,7 +2366,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F6" t="s">
         <v>230</v>
       </c>
@@ -2378,22 +2377,22 @@
         <v>232</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G7" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G8" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G9" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
         <v>236</v>
       </c>
